--- a/Fazzstore/Shopee/Shopee 2108/Bonus Kabel.xlsx
+++ b/Fazzstore/Shopee/Shopee 2108/Bonus Kabel.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Habibullah\Documents\Fazzstore\Shopee\Shopee 2108\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C2EB75-2F21-4BF1-B2F1-B315CBEF7DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,6 +139,15 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -145,15 +160,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -163,6 +169,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -211,7 +220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,9 +253,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,6 +305,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,249 +497,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A28" activeCellId="6" sqref="A4:XFD4 A8:XFD8 A12:XFD12 A16:XFD16 A20:XFD20 A24:XFD24 A28:XFD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.73046875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="25.7109375" style="5"/>
-    <col min="3" max="3" width="4.7109375" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="25.7109375" style="5"/>
+    <col min="1" max="2" width="25.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.59765625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="25.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="D3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="D7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="D9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="D11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="D13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="D15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="D17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="D19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="D21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="D23" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="D25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="D27" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="D29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="D31" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7"/>
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="D11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="D15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="D17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="D19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="D21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="D23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="D25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="D27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="D29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="D31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="D29:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="A17:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="D17:E18"/>
     <mergeCell ref="D19:E19"/>
@@ -706,17 +749,18 @@
     <mergeCell ref="D13:E14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="D29:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -724,24 +768,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
